--- a/Repositorio Agricultura/Detalle documentos.xlsx
+++ b/Repositorio Agricultura/Detalle documentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Dropbox\Repositorio Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3896D2-C2E2-4344-A395-0BF54320BBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A968AD2F-9201-4293-A53B-55FC0284721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="0" windowWidth="11070" windowHeight="10905" xr2:uid="{639F4662-038F-42A9-9F30-1017AB922726}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{639F4662-038F-42A9-9F30-1017AB922726}"/>
   </bookViews>
   <sheets>
     <sheet name="ODEPA" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>https://www.ine.cl/estadisticas/economia/agricultura-agroindustria-y-pesca/hortalizas</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Exportaciones por producto y mes</t>
+  </si>
+  <si>
+    <t>http://bibliotecadigital.ciren.cl/handle/123456789/31687</t>
+  </si>
+  <si>
+    <t>Averiguar acceso. Archivo no pdf (transformar CSV a excel</t>
   </si>
 </sst>
 </file>
@@ -611,21 +617,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D390757-D043-4D22-9FC1-1841DFAE8687}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="58.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="45.26953125" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>24</v>
       </c>
@@ -633,7 +639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -653,7 +659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -673,7 +679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -687,7 +693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -707,7 +713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -724,7 +730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>68</v>
       </c>
@@ -738,7 +744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -755,7 +761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -772,7 +778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -780,7 +786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -788,27 +794,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -816,27 +822,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -844,17 +861,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -862,22 +879,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>22</v>
       </c>
@@ -885,7 +902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -893,22 +910,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>51</v>
       </c>
@@ -934,15 +951,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -959,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -973,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>16</v>
       </c>
